--- a/580tecec/project/data.xlsx
+++ b/580tecec/project/data.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -6743,4 +6744,5824 @@
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B2">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C2">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D2">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E2">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F2">
+        <v>14.476299212598423</v>
+      </c>
+      <c r="G2">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H2">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I2">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J2">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K2">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L2">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M2">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N2">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O2">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P2">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B3">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C3">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D3">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E3">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F3">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G3">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H3">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I3">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J3">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K3">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L3">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M3">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N3">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O3">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P3">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B4">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C4">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D4">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E4">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F4">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G4">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H4">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I4">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J4">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K4">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L4">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M4">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N4">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O4">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P4">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B5">
+        <v>6.9811023622047239</v>
+      </c>
+      <c r="C5">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D5">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E5">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F5">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G5">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H5">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I5">
+        <v>20.510314960629923</v>
+      </c>
+      <c r="J5">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K5">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L5">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M5">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N5">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O5">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P5">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B6">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C6">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D6">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E6">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F6">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G6">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H6">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I6">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J6">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K6">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L6">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M6">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N6">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O6">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P6">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B7">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C7">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D7">
+        <v>11.03984251968504</v>
+      </c>
+      <c r="E7">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F7">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G7">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H7">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I7">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J7">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K7">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L7">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M7">
+        <v>28.736102362204722</v>
+      </c>
+      <c r="N7">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O7">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P7">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B8">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C8">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D8">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E8">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F8">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G8">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H8">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I8">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J8">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K8">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L8">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M8">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N8">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O8">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P8">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B9">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C9">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D9">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E9">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F9">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G9">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H9">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I9">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J9">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K9">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L9">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M9">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N9">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O9">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P9">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B10">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C10">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D10">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E10">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F10">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G10">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H10">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I10">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J10">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K10">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L10">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M10">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N10">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O10">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P10">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B11">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C11">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D11">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E11">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F11">
+        <v>14.476299212598423</v>
+      </c>
+      <c r="G11">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H11">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I11">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J11">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K11">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L11">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M11">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N11">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O11">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P11">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B12">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C12">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D12">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E12">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F12">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G12">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H12">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I12">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J12">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K12">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L12">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M12">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N12">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O12">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P12">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B13">
+        <v>7.0351968503937004</v>
+      </c>
+      <c r="C13">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D13">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E13">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F13">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G13">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H13">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I13">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J13">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K13">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L13">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M13">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N13">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O13">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P13">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B14">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C14">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D14">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E14">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F14">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G14">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H14">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I14">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J14">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K14">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L14">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M14">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N14">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O14">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P14">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B15">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C15">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D15">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E15">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F15">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G15">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H15">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I15">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J15">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K15">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L15">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M15">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N15">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O15">
+        <v>32.199566929133859</v>
+      </c>
+      <c r="P15">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B16">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C16">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D16">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E16">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F16">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G16">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H16">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I16">
+        <v>20.456220472440943</v>
+      </c>
+      <c r="J16">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K16">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L16">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M16">
+        <v>28.736102362204722</v>
+      </c>
+      <c r="N16">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O16">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P16">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B17">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C17">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D17">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E17">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F17">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G17">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H17">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I17">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J17">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K17">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L17">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M17">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N17">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O17">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P17">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B18">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C18">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D18">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E18">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F18">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G18">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H18">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I18">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J18">
+        <v>22.756181102362206</v>
+      </c>
+      <c r="K18">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L18">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M18">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N18">
+        <v>30.981968503937004</v>
+      </c>
+      <c r="O18">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P18">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B19">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C19">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D19">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E19">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F19">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G19">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H19">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I19">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J19">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K19">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L19">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M19">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N19">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O19">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P19">
+        <v>34.364251968503936</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B20">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C20">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D20">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E20">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F20">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G20">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H20">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I20">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J20">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K20">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L20">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M20">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N20">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O20">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P20">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B21">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C21">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D21">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E21">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F21">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G21">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H21">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I21">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J21">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K21">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L21">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M21">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N21">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O21">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P21">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B22">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C22">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D22">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E22">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F22">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G22">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H22">
+        <v>18.616220472440947</v>
+      </c>
+      <c r="I22">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J22">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K22">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L22">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M22">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N22">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O22">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P22">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B23">
+        <v>7.0351968503937004</v>
+      </c>
+      <c r="C23">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D23">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E23">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F23">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G23">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H23">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I23">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J23">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K23">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L23">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M23">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N23">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O23">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P23">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B24">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C24">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D24">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E24">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F24">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G24">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H24">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I24">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J24">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K24">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L24">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M24">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N24">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O24">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P24">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B25">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C25">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D25">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E25">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F25">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G25">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H25">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I25">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J25">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K25">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L25">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M25">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N25">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O25">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P25">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B26">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C26">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D26">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E26">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F26">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G26">
+        <v>16.749212598425196</v>
+      </c>
+      <c r="H26">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I26">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J26">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K26">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L26">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M26">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N26">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O26">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P26">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B27">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C27">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D27">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E27">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F27">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G27">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H27">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I27">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J27">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K27">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L27">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M27">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N27">
+        <v>30.711377952755907</v>
+      </c>
+      <c r="O27">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P27">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B28">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C28">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D28">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E28">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F28">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G28">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H28">
+        <v>18.886811023622045</v>
+      </c>
+      <c r="I28">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J28">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K28">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L28">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M28">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N28">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O28">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P28">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B29">
+        <v>7.0351968503937004</v>
+      </c>
+      <c r="C29">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D29">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E29">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F29">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G29">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H29">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I29">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J29">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K29">
+        <v>24.839685039370078</v>
+      </c>
+      <c r="L29">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M29">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N29">
+        <v>30.711377952755907</v>
+      </c>
+      <c r="O29">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P29">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B30">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C30">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D30">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E30">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F30">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G30">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H30">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I30">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J30">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K30">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L30">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M30">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N30">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O30">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P30">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31">
+        <v>4.9516929133858261</v>
+      </c>
+      <c r="B31">
+        <v>7.0351968503937004</v>
+      </c>
+      <c r="C31">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D31">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E31">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F31">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G31">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H31">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I31">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J31">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K31">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L31">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M31">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N31">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O31">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P31">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B32">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C32">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D32">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E32">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F32">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G32">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H32">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I32">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J32">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K32">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L32">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M32">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N32">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O32">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P32">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B33">
+        <v>6.9811023622047239</v>
+      </c>
+      <c r="C33">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D33">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E33">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F33">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G33">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H33">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I33">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J33">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K33">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L33">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M33">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N33">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O33">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P33">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B34">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C34">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D34">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E34">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F34">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G34">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H34">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I34">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J34">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K34">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L34">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M34">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N34">
+        <v>30.873700787401575</v>
+      </c>
+      <c r="O34">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P34">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B35">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C35">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D35">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E35">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F35">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G35">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H35">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I35">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J35">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K35">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L35">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M35">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N35">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O35">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P35">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B36">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C36">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D36">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E36">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F36">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G36">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H36">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I36">
+        <v>20.456220472440943</v>
+      </c>
+      <c r="J36">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K36">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L36">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M36">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N36">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O36">
+        <v>32.199566929133859</v>
+      </c>
+      <c r="P36">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B37">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C37">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D37">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E37">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F37">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G37">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H37">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I37">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J37">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K37">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L37">
+        <v>26.896141732283461</v>
+      </c>
+      <c r="M37">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N37">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O37">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P37">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B38">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C38">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D38">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E38">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F38">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G38">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H38">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I38">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J38">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K38">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L38">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M38">
+        <v>28.736102362204722</v>
+      </c>
+      <c r="N38">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O38">
+        <v>32.199566929133859</v>
+      </c>
+      <c r="P38">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B39">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C39">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D39">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E39">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F39">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G39">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H39">
+        <v>18.913858267716538</v>
+      </c>
+      <c r="I39">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J39">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K39">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L39">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M39">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N39">
+        <v>30.711377952755907</v>
+      </c>
+      <c r="O39">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P39">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B40">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C40">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D40">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E40">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F40">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G40">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H40">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I40">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J40">
+        <v>22.702047244094491</v>
+      </c>
+      <c r="K40">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L40">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M40">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N40">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O40">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P40">
+        <v>34.364251968503936</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B41">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C41">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D41">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E41">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F41">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G41">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H41">
+        <v>18.913858267716538</v>
+      </c>
+      <c r="I41">
+        <v>20.456220472440943</v>
+      </c>
+      <c r="J41">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K41">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L41">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M41">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N41">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O41">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P41">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B42">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C42">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D42">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E42">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F42">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G42">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H42">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I42">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J42">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K42">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L42">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M42">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N42">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O42">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P42">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B43">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C43">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D43">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E43">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F43">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G43">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H43">
+        <v>18.913858267716538</v>
+      </c>
+      <c r="I43">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J43">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K43">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L43">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M43">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N43">
+        <v>31.036062992125981</v>
+      </c>
+      <c r="O43">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P43">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B44">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C44">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D44">
+        <v>11.256338582677165</v>
+      </c>
+      <c r="E44">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F44">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G44">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H44">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I44">
+        <v>20.510314960629923</v>
+      </c>
+      <c r="J44">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K44">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L44">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M44">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N44">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O44">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P44">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B45">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C45">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D45">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E45">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F45">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G45">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H45">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I45">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J45">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K45">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L45">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M45">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N45">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O45">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P45">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B46">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C46">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D46">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E46">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F46">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G46">
+        <v>16.911535433070867</v>
+      </c>
+      <c r="H46">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I46">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J46">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K46">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L46">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M46">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N46">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O46">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P46">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B47">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C47">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D47">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E47">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F47">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G47">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H47">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I47">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J47">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K47">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L47">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M47">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N47">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O47">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P47">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B48">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C48">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D48">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E48">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F48">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G48">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H48">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I48">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J48">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K48">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L48">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M48">
+        <v>28.600826771653544</v>
+      </c>
+      <c r="N48">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O48">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P48">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B49">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C49">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D49">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E49">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F49">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G49">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H49">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I49">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J49">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K49">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L49">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M49">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N49">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O49">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P49">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50">
+        <v>5.0328740157480318</v>
+      </c>
+      <c r="B50">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C50">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D50">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E50">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F50">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G50">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H50">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I50">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J50">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K50">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L50">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M50">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N50">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O50">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P50">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51">
+        <v>5.0599212598425192</v>
+      </c>
+      <c r="B51">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C51">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D51">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E51">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F51">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G51">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H51">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I51">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J51">
+        <v>22.702047244094491</v>
+      </c>
+      <c r="K51">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L51">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M51">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N51">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O51">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P51">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B52">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C52">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D52">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E52">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F52">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G52">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H52">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I52">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J52">
+        <v>22.702047244094491</v>
+      </c>
+      <c r="K52">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L52">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M52">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N52">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O52">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P52">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B53">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C53">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D53">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E53">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F53">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G53">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H53">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I53">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J53">
+        <v>22.702047244094491</v>
+      </c>
+      <c r="K53">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L53">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M53">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N53">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O53">
+        <v>32.145472440944886</v>
+      </c>
+      <c r="P53">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B54">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C54">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D54">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E54">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F54">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G54">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H54">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I54">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J54">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K54">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L54">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M54">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N54">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O54">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P54">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B55">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C55">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D55">
+        <v>11.256338582677165</v>
+      </c>
+      <c r="E55">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F55">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G55">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H55">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I55">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J55">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K55">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L55">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M55">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N55">
+        <v>30.711377952755907</v>
+      </c>
+      <c r="O55">
+        <v>32.145472440944886</v>
+      </c>
+      <c r="P55">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B56">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C56">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D56">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E56">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F56">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G56">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H56">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I56">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J56">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K56">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L56">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M56">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N56">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O56">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P56">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B57">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C57">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D57">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E57">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F57">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G57">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H57">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I57">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J57">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K57">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L57">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M57">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N57">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O57">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P57">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B58">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C58">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D58">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E58">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F58">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G58">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H58">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I58">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J58">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K58">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L58">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M58">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N58">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O58">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P58">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B59">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C59">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D59">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E59">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F59">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G59">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H59">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I59">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J59">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K59">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L59">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M59">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N59">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O59">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P59">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B60">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C60">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D60">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E60">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F60">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G60">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H60">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I60">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J60">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K60">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L60">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M60">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N60">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O60">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P60">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B61">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C61">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D61">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E61">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F61">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G61">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H61">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I61">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J61">
+        <v>22.756181102362206</v>
+      </c>
+      <c r="K61">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L61">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M61">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N61">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O61">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P61">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B62">
+        <v>7.0351968503937004</v>
+      </c>
+      <c r="C62">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D62">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E62">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F62">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G62">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H62">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I62">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J62">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K62">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L62">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M62">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N62">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O62">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P62">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B63">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C63">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D63">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E63">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F63">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G63">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H63">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I63">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J63">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K63">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L63">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M63">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N63">
+        <v>30.981968503937004</v>
+      </c>
+      <c r="O63">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P63">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B64">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C64">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D64">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E64">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F64">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G64">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H64">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I64">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J64">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K64">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L64">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M64">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N64">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O64">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P64">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B65">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C65">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D65">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E65">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F65">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G65">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H65">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I65">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J65">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K65">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L65">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M65">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N65">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O65">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P65">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B66">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C66">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D66">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E66">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F66">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G66">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H66">
+        <v>18.616220472440947</v>
+      </c>
+      <c r="I66">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J66">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K66">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L66">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M66">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N66">
+        <v>30.711377952755907</v>
+      </c>
+      <c r="O66">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P66">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B67">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C67">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D67">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E67">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F67">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G67">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H67">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I67">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J67">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K67">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L67">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M67">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N67">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O67">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P67">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B68">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C68">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D68">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E68">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F68">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G68">
+        <v>16.911535433070867</v>
+      </c>
+      <c r="H68">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I68">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J68">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K68">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L68">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M68">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N68">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O68">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P68">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B69">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C69">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D69">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E69">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F69">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G69">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H69">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I69">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J69">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K69">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L69">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M69">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N69">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O69">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P69">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B70">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C70">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D70">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E70">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F70">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G70">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H70">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I70">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J70">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K70">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L70">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M70">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N70">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O70">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P70">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B71">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C71">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D71">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E71">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F71">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G71">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H71">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I71">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J71">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K71">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L71">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M71">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N71">
+        <v>30.657244094488188</v>
+      </c>
+      <c r="O71">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P71">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B72">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C72">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D72">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E72">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F72">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G72">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H72">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I72">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J72">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K72">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L72">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M72">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N72">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O72">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P72">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B73">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C73">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D73">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E73">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F73">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G73">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H73">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I73">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J73">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K73">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L73">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M73">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N73">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O73">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P73">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B74">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C74">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D74">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E74">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F74">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G74">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H74">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I74">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J74">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K74">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L74">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M74">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N74">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O74">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P74">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B75">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C75">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D75">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E75">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F75">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G75">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H75">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I75">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J75">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K75">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L75">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M75">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N75">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O75">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P75">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B76">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C76">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D76">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E76">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F76">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G76">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H76">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I76">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J76">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K76">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L76">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M76">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N76">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O76">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P76">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B77">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C77">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D77">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E77">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F77">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G77">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H77">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I77">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J77">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K77">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L77">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M77">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N77">
+        <v>30.981968503937004</v>
+      </c>
+      <c r="O77">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P77">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B78">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C78">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D78">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E78">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F78">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G78">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H78">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I78">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J78">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K78">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L78">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M78">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N78">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O78">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P78">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B79">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C79">
+        <v>8.9834251968503942</v>
+      </c>
+      <c r="D79">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E79">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F79">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G79">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H79">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I79">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J79">
+        <v>22.756181102362206</v>
+      </c>
+      <c r="K79">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L79">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M79">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N79">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O79">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P79">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B80">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C80">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D80">
+        <v>11.256338582677165</v>
+      </c>
+      <c r="E80">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F80">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G80">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H80">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I80">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J80">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K80">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L80">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M80">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N80">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O80">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P80">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B81">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C81">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D81">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E81">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F81">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G81">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H81">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I81">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J81">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K81">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L81">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M81">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N81">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O81">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P81">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B82">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C82">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D82">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E82">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F82">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G82">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H82">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I82">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J82">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K82">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L82">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M82">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N82">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O82">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P82">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B83">
+        <v>6.9811023622047239</v>
+      </c>
+      <c r="C83">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D83">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E83">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F83">
+        <v>14.692755905511811</v>
+      </c>
+      <c r="G83">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H83">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I83">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J83">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K83">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L83">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M83">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N83">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O83">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P83">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B84">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C84">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D84">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E84">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F84">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G84">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H84">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I84">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J84">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K84">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L84">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M84">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N84">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O84">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P84">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B85">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C85">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D85">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E85">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F85">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G85">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H85">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I85">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J85">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K85">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L85">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M85">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N85">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O85">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P85">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B86">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C86">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D86">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E86">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F86">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G86">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H86">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I86">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J86">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K86">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L86">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M86">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N86">
+        <v>31.009015748031498</v>
+      </c>
+      <c r="O86">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P86">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B87">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C87">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D87">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E87">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F87">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G87">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H87">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I87">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J87">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K87">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L87">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M87">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N87">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O87">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P87">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B88">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C88">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D88">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E88">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F88">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G88">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H88">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I88">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J88">
+        <v>22.702047244094491</v>
+      </c>
+      <c r="K88">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L88">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M88">
+        <v>28.546692913385826</v>
+      </c>
+      <c r="N88">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O88">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P88">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B89">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C89">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D89">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E89">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F89">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G89">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H89">
+        <v>18.616220472440947</v>
+      </c>
+      <c r="I89">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J89">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K89">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L89">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M89">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N89">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O89">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P89">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B90">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C90">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D90">
+        <v>11.066929133858267</v>
+      </c>
+      <c r="E90">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F90">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G90">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H90">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I90">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J90">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K90">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L90">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M90">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N90">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O90">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P90">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B91">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C91">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D91">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E91">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F91">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G91">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H91">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I91">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J91">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K91">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L91">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M91">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N91">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O91">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P91">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B92">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C92">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D92">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E92">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F92">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G92">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H92">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I92">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J92">
+        <v>22.756181102362206</v>
+      </c>
+      <c r="K92">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L92">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M92">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N92">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O92">
+        <v>32.199566929133859</v>
+      </c>
+      <c r="P92">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B93">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C93">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D93">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E93">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F93">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G93">
+        <v>16.749212598425196</v>
+      </c>
+      <c r="H93">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I93">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J93">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K93">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L93">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M93">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N93">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O93">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P93">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B94">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C94">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D94">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E94">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F94">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G94">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H94">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I94">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J94">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K94">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L94">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M94">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N94">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O94">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P94">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B95">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C95">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D95">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E95">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F95">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G95">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H95">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I95">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J95">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K95">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L95">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M95">
+        <v>28.546692913385826</v>
+      </c>
+      <c r="N95">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O95">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P95">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B96">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C96">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D96">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E96">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F96">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G96">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H96">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I96">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J96">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K96">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L96">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M96">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N96">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O96">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P96">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B97">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C97">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D97">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E97">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F97">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G97">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H97">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I97">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J97">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K97">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L97">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M97">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N97">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O97">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P97">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B98">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C98">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D98">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E98">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F98">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G98">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H98">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I98">
+        <v>20.510314960629923</v>
+      </c>
+      <c r="J98">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K98">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L98">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M98">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N98">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O98">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P98">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B99">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C99">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D99">
+        <v>11.256338582677165</v>
+      </c>
+      <c r="E99">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F99">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G99">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H99">
+        <v>18.913858267716538</v>
+      </c>
+      <c r="I99">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J99">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K99">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L99">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M99">
+        <v>28.546692913385826</v>
+      </c>
+      <c r="N99">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O99">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P99">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100">
+        <v>5.0599212598425192</v>
+      </c>
+      <c r="B100">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C100">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D100">
+        <v>11.20220472440945</v>
+      </c>
+      <c r="E100">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F100">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G100">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H100">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I100">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J100">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K100">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L100">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M100">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N100">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O100">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P100">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B101">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C101">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D101">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E101">
+        <v>12.988070866141731</v>
+      </c>
+      <c r="F101">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G101">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H101">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I101">
+        <v>20.510314960629923</v>
+      </c>
+      <c r="J101">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K101">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L101">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M101">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N101">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O101">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P101">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B102">
+        <v>6.9811023622047239</v>
+      </c>
+      <c r="C102">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D102">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E102">
+        <v>13.015118110236219</v>
+      </c>
+      <c r="F102">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G102">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H102">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I102">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J102">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K102">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L102">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M102">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N102">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O102">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P102">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B103">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C103">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D103">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E103">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F103">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G103">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H103">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I103">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J103">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K103">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L103">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M103">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N103">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O103">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P103">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B104">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C104">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D104">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E104">
+        <v>12.852755905511811</v>
+      </c>
+      <c r="F104">
+        <v>14.530393700787403</v>
+      </c>
+      <c r="G104">
+        <v>16.938622047244092</v>
+      </c>
+      <c r="H104">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I104">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J104">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K104">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L104">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M104">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N104">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O104">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P104">
+        <v>34.824251968503937</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B105">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C105">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D105">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E105">
+        <v>12.825708661417323</v>
+      </c>
+      <c r="F105">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G105">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H105">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I105">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J105">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K105">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L105">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M105">
+        <v>28.736102362204722</v>
+      </c>
+      <c r="N105">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O105">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P105">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106">
+        <v>5.0599212598425192</v>
+      </c>
+      <c r="B106">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C106">
+        <v>8.8751968503937011</v>
+      </c>
+      <c r="D106">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G106">
+        <v>16.965669291338582</v>
+      </c>
+      <c r="H106">
+        <v>18.724448818897638</v>
+      </c>
+      <c r="I106">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J106">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K106">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L106">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M106">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N106">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O106">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P106">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B107">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C107">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D107">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G107">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H107">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I107">
+        <v>20.483267716535433</v>
+      </c>
+      <c r="J107">
+        <v>22.756181102362206</v>
+      </c>
+      <c r="K107">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L107">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M107">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N107">
+        <v>30.981968503937004</v>
+      </c>
+      <c r="O107">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P107">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B108">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C108">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D108">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108">
+        <v>14.665708661417323</v>
+      </c>
+      <c r="G108">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H108">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I108">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J108">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K108">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L108">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M108">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N108">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O108">
+        <v>32.41606299212598</v>
+      </c>
+      <c r="P108">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B109">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C109">
+        <v>8.8481102362204727</v>
+      </c>
+      <c r="D109">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G109">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H109">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I109">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J109">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K109">
+        <v>24.947913385826769</v>
+      </c>
+      <c r="L109">
+        <v>26.571417322834645</v>
+      </c>
+      <c r="M109">
+        <v>28.411417322834648</v>
+      </c>
+      <c r="N109">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O109">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P109">
+        <v>34.688976377952756</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B110">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C110">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D110">
+        <v>11.093976377952755</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110">
+        <v>14.503346456692915</v>
+      </c>
+      <c r="G110">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H110">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I110">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J110">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K110">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L110">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M110">
+        <v>28.600826771653544</v>
+      </c>
+      <c r="N110">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O110">
+        <v>32.226653543307087</v>
+      </c>
+      <c r="P110">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111">
+        <v>5.0599212598425192</v>
+      </c>
+      <c r="B111">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C111">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D111">
+        <v>11.229251968503938</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H111">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I111">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J111">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K111">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L111">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M111">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N111">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O111">
+        <v>32.388976377952758</v>
+      </c>
+      <c r="P111">
+        <v>34.851299212598427</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B112">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C112">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H112">
+        <v>18.589173228346457</v>
+      </c>
+      <c r="I112">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J112">
+        <v>22.593818897637796</v>
+      </c>
+      <c r="K112">
+        <v>24.974960629921259</v>
+      </c>
+      <c r="L112">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M112">
+        <v>28.546692913385826</v>
+      </c>
+      <c r="N112">
+        <v>30.846653543307085</v>
+      </c>
+      <c r="O112">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P112">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B113">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C113">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H113">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I113">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J113">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K113">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L113">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M113">
+        <v>28.736102362204722</v>
+      </c>
+      <c r="N113">
+        <v>30.657244094488188</v>
+      </c>
+      <c r="O113">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P113">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B114">
+        <v>6.9811023622047239</v>
+      </c>
+      <c r="C114">
+        <v>9.0375196850393706</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H114">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I114">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J114">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K114">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L114">
+        <v>26.733779527559058</v>
+      </c>
+      <c r="M114">
+        <v>28.438464566929134</v>
+      </c>
+      <c r="N114">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O114">
+        <v>32.118425196850389</v>
+      </c>
+      <c r="P114">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B115">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C115">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115">
+        <v>16.911535433070867</v>
+      </c>
+      <c r="H115">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I115">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J115">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K115">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L115">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M115">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N115">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O115">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P115">
+        <v>34.526614173228346</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116">
+        <v>4.8975984251968505</v>
+      </c>
+      <c r="B116">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C116">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116">
+        <v>16.776259842519686</v>
+      </c>
+      <c r="H116">
+        <v>18.778582677165353</v>
+      </c>
+      <c r="I116">
+        <v>20.34795275590551</v>
+      </c>
+      <c r="J116">
+        <v>22.566771653543306</v>
+      </c>
+      <c r="K116">
+        <v>24.812637795275588</v>
+      </c>
+      <c r="L116">
+        <v>26.544370078740158</v>
+      </c>
+      <c r="M116">
+        <v>28.573740157480312</v>
+      </c>
+      <c r="N116">
+        <v>30.819606299212598</v>
+      </c>
+      <c r="O116">
+        <v>32.091338582677167</v>
+      </c>
+      <c r="P116">
+        <v>34.661889763779527</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117">
+        <v>4.8705118110236221</v>
+      </c>
+      <c r="B117">
+        <v>7.0081496062992121</v>
+      </c>
+      <c r="C117">
+        <v>9.0104724409448824</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117">
+        <v>16.803307086614172</v>
+      </c>
+      <c r="H117">
+        <v>18.751535433070867</v>
+      </c>
+      <c r="I117">
+        <v>20.320905511811024</v>
+      </c>
+      <c r="J117">
+        <v>22.729133858267716</v>
+      </c>
+      <c r="K117">
+        <v>24.785551181102363</v>
+      </c>
+      <c r="L117">
+        <v>26.706732283464564</v>
+      </c>
+      <c r="M117">
+        <v>28.546692913385826</v>
+      </c>
+      <c r="N117">
+        <v>30.684291338582678</v>
+      </c>
+      <c r="O117">
+        <v>32.064291338582677</v>
+      </c>
+      <c r="P117">
+        <v>34.499566929133856</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>